--- a/assignment_result.xlsx
+++ b/assignment_result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="85">
   <si>
     <t>Anusha178</t>
   </si>
@@ -212,18 +212,12 @@
     <t>indentation missing and latest code missing</t>
   </si>
   <si>
-    <t>Completed but needs latest code merge</t>
-  </si>
-  <si>
     <t>incomplete</t>
   </si>
   <si>
     <t>Harishth</t>
   </si>
   <si>
-    <t>Partially Complete needs latest code</t>
-  </si>
-  <si>
     <t>sachinmoharil</t>
   </si>
   <si>
@@ -234,6 +228,57 @@
   </si>
   <si>
     <t>complete</t>
+  </si>
+  <si>
+    <t>completed (but not needed this much)</t>
+  </si>
+  <si>
+    <t>bhaskar1987</t>
+  </si>
+  <si>
+    <t>completed but who is "Sushma"?</t>
+  </si>
+  <si>
+    <t>completed but code pushed by Sushma. Indentation is missing</t>
+  </si>
+  <si>
+    <t>Completed (found merge conflict)</t>
+  </si>
+  <si>
+    <t>Completed but html tag is missing</t>
+  </si>
+  <si>
+    <t>completed but indentation is missing</t>
+  </si>
+  <si>
+    <t>irapani</t>
+  </si>
+  <si>
+    <t>jayakrishna440</t>
+  </si>
+  <si>
+    <t>krkkrkkrk</t>
+  </si>
+  <si>
+    <t>completed but pay attention to indentation</t>
+  </si>
+  <si>
+    <t>completed but pay attention to spaces</t>
+  </si>
+  <si>
+    <t>partially completed missing &lt;form&gt;</t>
+  </si>
+  <si>
+    <t>partially completed. &lt;githtml&gt; is not valid</t>
+  </si>
+  <si>
+    <t>ravibashetty</t>
+  </si>
+  <si>
+    <t>reddy2006</t>
+  </si>
+  <si>
+    <t>saikaran4423</t>
   </si>
 </sst>
 </file>
@@ -551,16 +596,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE32"/>
+  <dimension ref="A1:AE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -663,7 +710,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -673,13 +723,19 @@
       <c r="B3" t="s">
         <v>61</v>
       </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -689,221 +745,382 @@
       <c r="B5" t="s">
         <v>61</v>
       </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
       </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>46</v>
       </c>
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>47</v>
       </c>
-      <c r="B19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>49</v>
       </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>50</v>
       </c>
-      <c r="B22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>57</v>
       </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>58</v>
       </c>
-      <c r="B31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>59</v>
       </c>
-      <c r="B32" t="s">
-        <v>63</v>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
